--- a/src/test/resources/MasterData.xlsx
+++ b/src/test/resources/MasterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="11250" windowHeight="5445"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11250" windowHeight="5445" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Data" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,13 @@
     <sheet name="ERIBankLogin" sheetId="4" r:id="rId4"/>
     <sheet name="ERIBankPay" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <oleSize ref="A1:I16"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <oleSize ref="H1:Q16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>TestCase_Name</t>
   </si>
@@ -45,97 +45,109 @@
     <t>Result</t>
   </si>
   <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>InvalidLogin</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ERIBankLogin</t>
+  </si>
+  <si>
+    <t>ERIBankPay</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PlatformName</t>
+  </si>
+  <si>
+    <t>DeviceName</t>
+  </si>
+  <si>
+    <t>PackageName</t>
+  </si>
+  <si>
+    <t>PackageActivity</t>
+  </si>
+  <si>
+    <t>Platformversion</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>emulator-5554</t>
+  </si>
+  <si>
+    <t>5.0.2</t>
+  </si>
+  <si>
+    <t>com.experitest.ExperiBank</t>
+  </si>
+  <si>
+    <t>com.experitest.ExperiBank.LoginActivity</t>
+  </si>
+  <si>
+    <t>AppPath</t>
+  </si>
+  <si>
+    <t>UDID</t>
+  </si>
+  <si>
+    <t>BundleID</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Valid1</t>
+  </si>
+  <si>
+    <t>Valid2</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>company2</t>
+  </si>
+  <si>
+    <t>testPay</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>FAIL</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>InvalidLogin</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>ERIBankLogin</t>
-  </si>
-  <si>
-    <t>ERIBankPay</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>PlatformName</t>
-  </si>
-  <si>
-    <t>DeviceName</t>
-  </si>
-  <si>
-    <t>PackageName</t>
-  </si>
-  <si>
-    <t>PackageActivity</t>
-  </si>
-  <si>
-    <t>Platformversion</t>
-  </si>
-  <si>
-    <t>native</t>
-  </si>
-  <si>
-    <t>emulator-5554</t>
-  </si>
-  <si>
-    <t>5.0.2</t>
-  </si>
-  <si>
-    <t>com.experitest.ExperiBank</t>
-  </si>
-  <si>
-    <t>com.experitest.ExperiBank.LoginActivity</t>
-  </si>
-  <si>
-    <t>AppPath</t>
-  </si>
-  <si>
-    <t>UDID</t>
-  </si>
-  <si>
-    <t>BundleID</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
-    <t>Valid1</t>
-  </si>
-  <si>
-    <t>Valid2</t>
-  </si>
-  <si>
-    <t>Invalid</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Nishant</t>
-  </si>
-  <si>
-    <t>company2</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -143,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="18">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,36 +193,109 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="58"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="58"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="16"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="16"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -291,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -315,6 +400,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,47 +746,43 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s" s="21">
-        <v>35</v>
+      <c r="E4" t="s" s="35">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -694,16 +790,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s" s="22">
-        <v>35</v>
+      <c r="E5" t="s" s="37">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1580,12 +1676,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1608,15 +1704,15 @@
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1629,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1648,58 +1744,58 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>34</v>
@@ -1710,10 +1806,10 @@
     </row>
     <row r="3" spans="1:11">
       <c r="J3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1723,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1737,67 +1833,88 @@
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="37.7109375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="8.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>12345</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
         <v>36</v>
       </c>
     </row>
